--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\100 Error Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyapus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46DB3A-42F3-4DF0-A30D-04BA37604A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E964B-AC07-4D4D-9999-F65B0D2871CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,15 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -450,7 +450,7 @@
         <v>0.93271028037383175</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -470,7 +470,7 @@
         <v>0.95270270270270274</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0.99426847662141782</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -510,7 +510,7 @@
         <v>0.98245614035087714</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.96290050590219223</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.97532656023222064</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0.92682926829268297</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -590,92 +590,107 @@
         <v>0.97981651376146783</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45950</v>
+      </c>
+      <c r="B10">
+        <v>541</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.0183486238532111E-2</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.97981651376146783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyapus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\100 Error Counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E964B-AC07-4D4D-9999-F65B0D2871CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF10EC5-0966-4B2D-BDAC-3AAA636045E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -47,13 +47,7 @@
     <t>Session Timeout Errors</t>
   </si>
   <si>
-    <t>Timeout Errors %</t>
-  </si>
-  <si>
     <t>Errors Requiring Analysis</t>
-  </si>
-  <si>
-    <t>Errors requiring Analysis %</t>
   </si>
 </sst>
 </file>
@@ -112,13 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,18 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,14 +416,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -440,17 +427,11 @@
       <c r="C2">
         <v>72</v>
       </c>
-      <c r="D2" s="3">
-        <v>6.7289719626168226E-2</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>998</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.93271028037383175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -460,17 +441,11 @@
       <c r="C3">
         <v>35</v>
       </c>
-      <c r="D3" s="3">
-        <v>4.72972972972973E-2</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>705</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.95270270270270274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -480,17 +455,11 @@
       <c r="C4">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
-        <v>5.7315233785822017E-3</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>3296</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.99426847662141782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -500,17 +469,11 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>616</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.98245614035087714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -520,17 +483,11 @@
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
-        <v>3.7099494097807759E-2</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
         <v>571</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.96290050590219223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -540,17 +497,11 @@
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
-        <v>2.4673439767779391E-2</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
         <v>672</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.97532656023222064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -560,17 +511,11 @@
       <c r="C8">
         <v>57</v>
       </c>
-      <c r="D8" s="3">
-        <v>7.3170731707317069E-2</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
         <v>722</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.92682926829268297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -580,120 +525,74 @@
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
-        <v>2.0183486238532111E-2</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>534</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.97981651376146783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
       <c r="B10">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.0183486238532111E-2</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.97981651376146783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\100 Error Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF10EC5-0966-4B2D-BDAC-3AAA636045E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02F537-92BB-4026-96D8-ADA115805381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>45951</v>
+      </c>
+      <c r="B11">
+        <v>757</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>739</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02F537-92BB-4026-96D8-ADA115805381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCC26E-9AAE-47D0-94D8-00B21B51741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,18 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>45952</v>
+      </c>
+      <c r="B12">
+        <v>586</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>557</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCC26E-9AAE-47D0-94D8-00B21B51741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F8B08-1EC7-402F-81FA-D8F090D6EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,49 +571,60 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B13">
+        <v>686</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F8B08-1EC7-402F-81FA-D8F090D6EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234626E5-02C8-4228-8F66-E4ECAD1E6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,10 +586,32 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>45957</v>
+      </c>
+      <c r="B14">
+        <v>733</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>711</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B15">
+        <v>595</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>576</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234626E5-02C8-4228-8F66-E4ECAD1E6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D6429-B5CD-4D43-954F-DDDD8CA8047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,39 +614,61 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45959</v>
+      </c>
+      <c r="B16">
+        <v>641</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45958</v>
+      </c>
+      <c r="B17">
+        <v>648</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D6429-B5CD-4D43-954F-DDDD8CA8047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D27B47B-D544-43FA-BAB7-137D9F5BEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,7 +642,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>45960</v>
+      </c>
+      <c r="B18">
+        <v>647</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>637</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D27B47B-D544-43FA-BAB7-137D9F5BEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC757C19-0CFA-4BDC-AC60-69C239852867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +571,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +599,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +613,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,31 +655,42 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45961</v>
+      </c>
+      <c r="B19">
+        <v>594</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC757C19-0CFA-4BDC-AC60-69C239852867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1508F96-B2DA-4DB4-9476-C3497D62568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,18 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>45964</v>
+      </c>
+      <c r="B20">
+        <v>674</v>
+      </c>
+      <c r="C20">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>633</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1508F96-B2DA-4DB4-9476-C3497D62568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9215B9-9BE8-487F-B7E8-F9E74CF25F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,18 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>45965</v>
+      </c>
+      <c r="B21">
+        <v>716</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>694</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9215B9-9BE8-487F-B7E8-F9E74CF25F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA65122A-3A46-49BB-AA0A-7B0D4C4D4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +571,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +599,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +613,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,7 +655,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45961</v>
       </c>
@@ -669,7 +669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45964</v>
       </c>
@@ -683,7 +683,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45965</v>
       </c>
@@ -697,22 +697,33 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45966</v>
+      </c>
+      <c r="B22">
+        <v>576</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA65122A-3A46-49BB-AA0A-7B0D4C4D4776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4724028-2B8F-4D6F-BA43-A7D533623967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +712,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>45967</v>
+      </c>
+      <c r="B23">
+        <v>604</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>590</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4724028-2B8F-4D6F-BA43-A7D533623967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03322B2E-446E-4DD6-A5CC-9D7B17CFCE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,18 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>45968</v>
+      </c>
+      <c r="B24">
+        <v>573</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>563</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03322B2E-446E-4DD6-A5CC-9D7B17CFCE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,7 +740,18 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>45971</v>
+      </c>
+      <c r="B25">
+        <v>598</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>578</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1AE439-1808-4F67-B594-03EBD8D8D730}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,7 +754,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>45973</v>
+      </c>
+      <c r="B26">
+        <v>680</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>654</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1AE439-1808-4F67-B594-03EBD8D8D730}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03322B2E-446E-4DD6-A5CC-9D7B17CFCE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,32 +740,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B25">
-        <v>598</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>578</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>45973</v>
-      </c>
-      <c r="B26">
-        <v>680</v>
-      </c>
-      <c r="C26">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>654</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03322B2E-446E-4DD6-A5CC-9D7B17CFCE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA120C5-53FD-4086-80AF-15B2CD2DFD53}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,13 +740,46 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>45971</v>
+      </c>
+      <c r="B25">
+        <v>598</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>578</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>45973</v>
+      </c>
+      <c r="B26">
+        <v>680</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>654</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B27">
+        <v>741</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>706</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA120C5-53FD-4086-80AF-15B2CD2DFD53}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925B384A-E92F-47C6-A0A7-0EB581094D4B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,18 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +432,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +446,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +460,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +474,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +488,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +502,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +516,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +530,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +544,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +558,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +572,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +586,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +600,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +614,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +628,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +642,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,7 +656,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45961</v>
       </c>
@@ -669,7 +670,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45964</v>
       </c>
@@ -683,7 +684,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45965</v>
       </c>
@@ -697,7 +698,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45966</v>
       </c>
@@ -711,7 +712,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45967</v>
       </c>
@@ -725,7 +726,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45968</v>
       </c>
@@ -739,7 +740,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45971</v>
       </c>
@@ -753,7 +754,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45973</v>
       </c>
@@ -767,7 +768,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45974</v>
       </c>
@@ -779,6 +780,20 @@
       </c>
       <c r="D27">
         <v>706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45975</v>
+      </c>
+      <c r="B28">
+        <v>614</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925B384A-E92F-47C6-A0A7-0EB581094D4B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14A4AA5-A476-48A2-8415-40AE73172B4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,13 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +782,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>45975</v>
       </c>
       <c r="B28">
@@ -795,6 +794,146 @@
       <c r="D28">
         <v>586</v>
       </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45978</v>
+      </c>
+      <c r="B29">
+        <v>1005</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14A4AA5-A476-48A2-8415-40AE73172B4F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814F94C2-7B7A-4479-B7F7-DD6FAE01A353}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,16 +394,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +571,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +599,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +613,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,7 +655,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45961</v>
       </c>
@@ -669,7 +669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45964</v>
       </c>
@@ -683,7 +683,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45965</v>
       </c>
@@ -697,7 +697,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45966</v>
       </c>
@@ -711,7 +711,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45967</v>
       </c>
@@ -725,7 +725,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45968</v>
       </c>
@@ -739,7 +739,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45971</v>
       </c>
@@ -753,7 +753,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45973</v>
       </c>
@@ -767,7 +767,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45974</v>
       </c>
@@ -781,7 +781,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45975</v>
       </c>
@@ -795,7 +795,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45978</v>
       </c>
@@ -809,130 +809,141 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B30">
+        <v>943</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814F94C2-7B7A-4479-B7F7-DD6FAE01A353}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915C93CA-C16B-4FC7-A408-F8EB3DD8FBBB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,18 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B31">
+        <v>604</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>584</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915C93CA-C16B-4FC7-A408-F8EB3DD8FBBB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B6FE43E-4A2D-425F-A7FD-573E097285D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +571,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +599,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +613,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,7 +655,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45961</v>
       </c>
@@ -669,7 +669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45964</v>
       </c>
@@ -683,7 +683,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45965</v>
       </c>
@@ -697,7 +697,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45966</v>
       </c>
@@ -711,7 +711,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45967</v>
       </c>
@@ -725,7 +725,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45968</v>
       </c>
@@ -739,7 +739,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45971</v>
       </c>
@@ -753,7 +753,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45973</v>
       </c>
@@ -767,7 +767,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45974</v>
       </c>
@@ -781,7 +781,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45975</v>
       </c>
@@ -795,7 +795,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45978</v>
       </c>
@@ -809,7 +809,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45979</v>
       </c>
@@ -823,7 +823,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45980</v>
       </c>
@@ -837,124 +837,135 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45981</v>
+      </c>
+      <c r="B32">
+        <v>597</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B6FE43E-4A2D-425F-A7FD-573E097285D6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2CB5C1-0215-46AB-A148-58E69AD95CC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,16 +394,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -431,7 +431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45937</v>
       </c>
@@ -445,7 +445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45938</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45939</v>
       </c>
@@ -473,7 +473,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -487,7 +487,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45943</v>
       </c>
@@ -501,7 +501,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45944</v>
       </c>
@@ -515,7 +515,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45947</v>
       </c>
@@ -529,7 +529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45950</v>
       </c>
@@ -543,7 +543,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45951</v>
       </c>
@@ -557,7 +557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45952</v>
       </c>
@@ -571,7 +571,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45953</v>
       </c>
@@ -585,7 +585,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45957</v>
       </c>
@@ -599,7 +599,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45954</v>
       </c>
@@ -613,7 +613,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45959</v>
       </c>
@@ -627,7 +627,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45958</v>
       </c>
@@ -641,7 +641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45960</v>
       </c>
@@ -655,7 +655,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45961</v>
       </c>
@@ -669,7 +669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45964</v>
       </c>
@@ -683,7 +683,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45965</v>
       </c>
@@ -697,7 +697,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45966</v>
       </c>
@@ -711,7 +711,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45967</v>
       </c>
@@ -725,7 +725,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45968</v>
       </c>
@@ -739,7 +739,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45971</v>
       </c>
@@ -753,7 +753,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45973</v>
       </c>
@@ -767,7 +767,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45974</v>
       </c>
@@ -781,7 +781,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45975</v>
       </c>
@@ -795,7 +795,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45978</v>
       </c>
@@ -809,7 +809,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45979</v>
       </c>
@@ -823,7 +823,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45980</v>
       </c>
@@ -837,7 +837,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45981</v>
       </c>
@@ -851,121 +851,165 @@
         <v>577</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45982</v>
+      </c>
+      <c r="B33">
+        <v>539</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45985</v>
+      </c>
+      <c r="B34">
+        <v>653</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B35">
+        <v>672</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>45987</v>
+      </c>
+      <c r="B36">
+        <v>581</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A2CB5C1-0215-46AB-A148-58E69AD95CC1}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A254D3F-1942-4334-AE75-F7A51E14682D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D36"/>
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +908,18 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2">
+        <v>45992</v>
+      </c>
+      <c r="B37">
+        <v>663</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>640</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A254D3F-1942-4334-AE75-F7A51E14682D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DB3310-76D5-4F4C-97D6-CB05EC5E29A6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+      <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,10 +922,32 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>45993</v>
+      </c>
+      <c r="B38">
+        <v>607</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>586</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>45994</v>
+      </c>
+      <c r="B39">
+        <v>740</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>704</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DB3310-76D5-4F4C-97D6-CB05EC5E29A6}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB2B7C83-567A-48BE-8AF8-2601DFA3DBB2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,7 +950,18 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>45995</v>
+      </c>
+      <c r="B40">
+        <v>666</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>658</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB2B7C83-567A-48BE-8AF8-2601DFA3DBB2}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A366A4-C22F-41D1-A81B-5F877CD4BDB9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,10 +964,32 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>45999</v>
+      </c>
+      <c r="B41">
+        <v>620</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>602</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>45996</v>
+      </c>
+      <c r="B42">
+        <v>664</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>649</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A366A4-C22F-41D1-A81B-5F877CD4BDB9}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FF26BB-4218-433D-B701-1C30374CC9E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,7 +992,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <v>46000</v>
+      </c>
+      <c r="B43">
+        <v>649</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>633</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FF26BB-4218-433D-B701-1C30374CC9E5}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03B5016-9376-441A-A820-4280F72B1579}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:D43"/>
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,7 +1006,18 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>46001</v>
+      </c>
+      <c r="B44">
+        <v>625</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>603</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03B5016-9376-441A-A820-4280F72B1579}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E105A93-4A85-406D-A1F4-489FC6622786}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1020,18 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B45">
+        <v>612</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>599</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E105A93-4A85-406D-A1F4-489FC6622786}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948A8531-8786-4FE4-90A9-BB15805CC37D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,7 +1034,18 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>46003</v>
+      </c>
+      <c r="B46">
+        <v>543</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>525</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948A8531-8786-4FE4-90A9-BB15805CC37D}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6949E547-F41F-469F-845A-CE46F52E9DDF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,7 +1048,18 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B47">
+        <v>772</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>749</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6949E547-F41F-469F-845A-CE46F52E9DDF}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A556E04-DE49-42C3-BBC0-E8691A7A480A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,7 +1062,18 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>46007</v>
+      </c>
+      <c r="B48">
+        <v>615</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>593</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A556E04-DE49-42C3-BBC0-E8691A7A480A}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B939AAC-895A-42C7-B16D-FDAE5A635E8B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1075,52 +1075,63 @@
         <v>593</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>46008</v>
+      </c>
+      <c r="B49">
+        <v>661</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B939AAC-895A-42C7-B16D-FDAE5A635E8B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1346FD81-023C-4AB7-BEC6-826ECCFC2A2B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,7 +1090,18 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2">
+        <v>46009</v>
+      </c>
+      <c r="B50">
+        <v>717</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>700</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1346FD81-023C-4AB7-BEC6-826ECCFC2A2B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D2F882-5003-40AE-BC1C-B0AE8C287C0C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,13 +1104,46 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2">
+        <v>46013</v>
+      </c>
+      <c r="B51">
+        <v>573</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>563</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2">
+        <v>46010</v>
+      </c>
+      <c r="B52">
+        <v>746</v>
+      </c>
+      <c r="C52">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>729</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <v>46014</v>
+      </c>
+      <c r="B53">
+        <v>656</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>636</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D2F882-5003-40AE-BC1C-B0AE8C287C0C}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A12E58F-F623-479F-87D9-4999FAFFEB66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,57 +1146,211 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2">
+        <v>46015</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <v>46016</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>46017</v>
+      </c>
+      <c r="B56">
+        <v>515</v>
+      </c>
+      <c r="C56">
+        <v>496</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>46018</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <v>46019</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>46020</v>
+      </c>
+      <c r="B59">
+        <v>546</v>
+      </c>
+      <c r="C59">
+        <v>501</v>
+      </c>
+      <c r="D59">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>46021</v>
+      </c>
+      <c r="B60">
+        <v>505</v>
+      </c>
+      <c r="C60">
+        <v>496</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>46023</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>46024</v>
+      </c>
+      <c r="B63">
+        <v>510</v>
+      </c>
+      <c r="C63">
+        <v>486</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>46025</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>46026</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>46027</v>
+      </c>
+      <c r="B66">
+        <v>620</v>
+      </c>
+      <c r="C66">
+        <v>602</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B67">
+        <v>562</v>
+      </c>
+      <c r="C67">
+        <v>538</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A12E58F-F623-479F-87D9-4999FAFFEB66}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0272208-5CA7-4236-9579-ECFD0B6EC96F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,10 +1342,32 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B68">
+        <v>618</v>
+      </c>
+      <c r="C68">
+        <v>590</v>
+      </c>
+      <c r="D68">
+        <v>28</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B69">
+        <v>554</v>
+      </c>
+      <c r="C69">
+        <v>527</v>
+      </c>
+      <c r="D69">
+        <v>27</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0272208-5CA7-4236-9579-ECFD0B6EC96F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE966A6-B7F5-4E3E-96A8-7B7E9CEA39AA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1370,7 +1370,18 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B70">
+        <v>707</v>
+      </c>
+      <c r="C70">
+        <v>692</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE966A6-B7F5-4E3E-96A8-7B7E9CEA39AA}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C797E3E-7972-4718-A2FC-2F4B712306DE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,7 +1384,60 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B71">
+        <v>614</v>
+      </c>
+      <c r="C71">
+        <v>597</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B72">
+        <v>748</v>
+      </c>
+      <c r="C72">
+        <v>722</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>46035</v>
+      </c>
+      <c r="B73">
+        <v>793</v>
+      </c>
+      <c r="C73">
+        <v>744</v>
+      </c>
+      <c r="D73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>46036</v>
+      </c>
+      <c r="B74">
+        <v>637</v>
+      </c>
+      <c r="C74">
+        <v>613</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C797E3E-7972-4718-A2FC-2F4B712306DE}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE37D28-169F-429A-B9C7-4445638D726A}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D74"/>
+      <selection activeCell="A75" sqref="A75:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,6 +1440,34 @@
         <v>24</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>46037</v>
+      </c>
+      <c r="B75">
+        <v>731</v>
+      </c>
+      <c r="C75">
+        <v>695</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>46038</v>
+      </c>
+      <c r="B76">
+        <v>679</v>
+      </c>
+      <c r="C76">
+        <v>669</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE37D28-169F-429A-B9C7-4445638D726A}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CE8048-B12A-47EC-A0B7-F76FA1A8C7A1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,6 +1468,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B77">
+        <v>809</v>
+      </c>
+      <c r="C77">
+        <v>795</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B78">
+        <v>3655</v>
+      </c>
+      <c r="C78">
+        <v>3627</v>
+      </c>
+      <c r="D78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B79">
+        <v>1163</v>
+      </c>
+      <c r="C79">
+        <v>1146</v>
+      </c>
+      <c r="D79">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CE8048-B12A-47EC-A0B7-F76FA1A8C7A1}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D783DFC9-D4C6-4D4F-8FEB-E21FFF1ADEE5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,6 +1510,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B80">
+        <v>695</v>
+      </c>
+      <c r="C80">
+        <v>637</v>
+      </c>
+      <c r="D80">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>46048</v>
+      </c>
+      <c r="B81">
+        <v>1219</v>
+      </c>
+      <c r="C81">
+        <v>1201</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
+++ b/Monitoring Data Files/100 Error Counts/Daily 100 Error Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D783DFC9-D4C6-4D4F-8FEB-E21FFF1ADEE5}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{E4140D73-C432-4C61-B168-0AD80447A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3B8936-7F38-4C26-A66C-D7FF565E205D}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="V92" sqref="V92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,6 +1538,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>46049</v>
+      </c>
+      <c r="B82">
+        <v>936</v>
+      </c>
+      <c r="C82">
+        <v>916</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>46050</v>
+      </c>
+      <c r="B83">
+        <v>3044</v>
+      </c>
+      <c r="C83">
+        <v>3040</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
